--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Barry.Fall.121420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Barry.Fall.121420.xlsx_with_dialog_acts.xlsx
@@ -937,12 +937,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3749,12 +3749,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3791,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4547,12 +4547,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4715,12 +4715,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4967,12 +4967,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6857,12 +6857,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6941,12 +6941,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7823,12 +7823,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7865,12 +7865,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8285,12 +8285,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9251,12 +9251,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9881,12 +9881,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10175,12 +10175,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10301,12 +10301,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10427,12 +10427,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11057,12 +11057,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11267,12 +11267,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11981,12 +11981,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12149,12 +12149,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12317,12 +12317,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12359,12 +12359,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13199,12 +13199,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13409,12 +13409,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14753,12 +14753,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15047,12 +15047,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15215,12 +15215,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15383,12 +15383,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16571,12 +16571,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16611,12 +16611,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
